--- a/Test protocol/Sprint_4/System Test protocol_Braille DP2_Sprint 4.xlsx
+++ b/Test protocol/Sprint_4/System Test protocol_Braille DP2_Sprint 4.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -152,16 +152,7 @@
     <t>CSS  Specification:</t>
   </si>
   <si>
-    <t>v1.2</t>
-  </si>
-  <si>
     <t>https://github.com/snaekobbi/requirements/releases/tag/v1.2</t>
-  </si>
-  <si>
-    <t>https://github.com/snaekobbi/system/releases/tag/v1.2.0</t>
-  </si>
-  <si>
-    <t>v1.2.0</t>
   </si>
   <si>
     <t>Agency specific stylesheets defined.</t>
@@ -896,12 +887,91 @@
   <si>
     <t>(See Priority Guideline in Background and Preparation TAB)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In this sprint we deal with at least braille page numbering and print page numbering (possibly page range) in the header/footer in various required number formats.</t>
+    </r>
+  </si>
+  <si>
+    <t>4.4:74, 4.4:75 (Linespace handling and Printing)</t>
+  </si>
+  <si>
+    <t>Test Case 4.4:74 - 4.4:75, Test for Single/Double Linespace handling and Printing</t>
+  </si>
+  <si>
+    <t>DE, DK, FI, SE</t>
+  </si>
+  <si>
+    <t>v1.3</t>
+  </si>
+  <si>
+    <t>v1.3.0</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/system/releases/tag/v1.3.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall support single and double line spacing. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4.4:74)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When printing double-sided with line-spacing greater than 1, printed lines shall alternate on odd and even pages. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4.4:75)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1085,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1085,7 +1177,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1131,25 +1223,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1182,6 +1258,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
@@ -1487,7 +1597,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1501,7 +1611,7 @@
     </row>
     <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1565,7 +1675,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1583,12 +1693,12 @@
     </row>
     <row r="24" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -1607,9 +1717,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1621,7 +1731,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5"/>
@@ -1636,54 +1746,54 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>39</v>
+      <c r="D3" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="5" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+    <row r="6" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
@@ -1693,646 +1803,759 @@
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="43" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="60.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="51"/>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="51"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="51"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+    </row>
+    <row r="23" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="37.200000000000003" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="333.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="33"/>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="33"/>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="33"/>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="33"/>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="33"/>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="33"/>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="31"/>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="33"/>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
+      <c r="B46" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="33"/>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="36"/>
+      <c r="B47" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="33"/>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
+      <c r="B48" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="33"/>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="33"/>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="33"/>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="34"/>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="34"/>
+    </row>
+    <row r="54" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+    </row>
+    <row r="55" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="37.200000000000003" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" ht="25.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B56" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="333.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B57" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="33"/>
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
+      <c r="B62" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="33"/>
+    </row>
+    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="36"/>
+      <c r="B63" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="33"/>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="36"/>
+      <c r="B64" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="33"/>
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+      <c r="B65" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="33"/>
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="36"/>
+      <c r="B66" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="33"/>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="34"/>
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="34"/>
+    </row>
+    <row r="70" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
+    </row>
+    <row r="72" spans="1:3" s="3" customFormat="1" ht="49.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" s="3" customFormat="1" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="31"/>
+    </row>
+    <row r="76" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A76" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="33"/>
+    </row>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="36"/>
+      <c r="B78" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="33"/>
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="36"/>
+      <c r="B79" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="33"/>
+    </row>
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="36"/>
+      <c r="B80" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="33"/>
+    </row>
+    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="36"/>
+      <c r="B81" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="33"/>
+    </row>
+    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="36"/>
+      <c r="B82" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="33"/>
+    </row>
+    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="30"/>
+      <c r="C84" s="34"/>
+    </row>
+    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="34"/>
+    </row>
+    <row r="86" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+    </row>
+    <row r="87" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
+    </row>
+    <row r="88" spans="1:3" s="3" customFormat="1" ht="48.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" s="3" customFormat="1" ht="286.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B90" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="37"/>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="B91" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="31"/>
+    </row>
+    <row r="92" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A92" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="B92" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B93" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="36" t="s">
+      <c r="C93" s="33"/>
+    </row>
+    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="36"/>
+      <c r="B94" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="36" t="s">
+      <c r="C94" s="33"/>
+    </row>
+    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="36"/>
+      <c r="B95" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="39"/>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="36" t="s">
+      <c r="C95" s="33"/>
+    </row>
+    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="36"/>
+      <c r="B96" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="39"/>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="36" t="s">
+      <c r="C96" s="33"/>
+    </row>
+    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="36"/>
+      <c r="B97" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="39"/>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="36" t="s">
+      <c r="C97" s="33"/>
+    </row>
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="36"/>
+      <c r="B98" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="39"/>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="C98" s="33"/>
+    </row>
+    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37" t="s">
+      <c r="B99" s="30"/>
+      <c r="C99" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="40"/>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="40"/>
-    </row>
-    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="37"/>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="39"/>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="39"/>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="39"/>
-    </row>
-    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="39"/>
-    </row>
-    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="39"/>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="39"/>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="40"/>
-    </row>
-    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="40"/>
-    </row>
-    <row r="40" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" spans="1:3" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-    </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" ht="25.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="37"/>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="39"/>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="39"/>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="39"/>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="39"/>
-    </row>
-    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="39"/>
-    </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="39"/>
-    </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="40"/>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="40"/>
-    </row>
-    <row r="56" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-    </row>
-    <row r="57" spans="1:3" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-    </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" ht="49.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" s="3" customFormat="1" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="37"/>
-    </row>
-    <row r="62" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="39"/>
-    </row>
-    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="B64" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="39"/>
-    </row>
-    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="39"/>
-    </row>
-    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="B66" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="39"/>
-    </row>
-    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="39"/>
-    </row>
-    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
-      <c r="B68" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="39"/>
-    </row>
-    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="40"/>
-    </row>
-    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="40"/>
-    </row>
-    <row r="72" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-    </row>
-    <row r="73" spans="1:3" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="43" t="s">
+      <c r="B100" s="30"/>
+      <c r="C100" s="34"/>
+    </row>
+    <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
-    </row>
-    <row r="74" spans="1:3" s="3" customFormat="1" ht="48.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" s="3" customFormat="1" ht="286.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="37"/>
-    </row>
-    <row r="78" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A78" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="39"/>
-    </row>
-    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="B80" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="39"/>
-    </row>
-    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="39"/>
-    </row>
-    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="39"/>
-    </row>
-    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="39"/>
-    </row>
-    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="39"/>
-    </row>
-    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="40"/>
-    </row>
-    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B87" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="40"/>
-    </row>
-    <row r="88" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
+      <c r="C101" s="34"/>
+    </row>
+    <row r="102" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Test protocol/Sprint_4/System Test protocol_Braille DP2_Sprint 4.xlsx
+++ b/Test protocol/Sprint_4/System Test protocol_Braille DP2_Sprint 4.xlsx
@@ -42,9 +42,6 @@
     <t>Pre-requisites:</t>
   </si>
   <si>
-    <t>Test data:</t>
-  </si>
-  <si>
     <t>Steps:</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>CSS  Specification:</t>
   </si>
   <si>
-    <t>https://github.com/snaekobbi/requirements/releases/tag/v1.2</t>
-  </si>
-  <si>
     <t>Agency specific stylesheets defined.</t>
   </si>
   <si>
@@ -965,6 +959,12 @@
       </rPr>
       <t>(4.4:75)</t>
     </r>
+  </si>
+  <si>
+    <t>Agencies/Test data:</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/requirements/releases/tag/v1.3</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1177,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1291,6 +1291,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1598,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1606,32 +1609,32 @@
     </row>
     <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -1639,12 +1642,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -1652,17 +1655,17 @@
     </row>
     <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1670,22 +1673,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="144.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -1693,12 +1696,12 @@
     </row>
     <row r="24" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -1719,20 +1722,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -1747,45 +1748,45 @@
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -1811,7 +1812,7 @@
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="45"/>
       <c r="C9" s="46"/>
@@ -1821,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="31"/>
     </row>
@@ -1830,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="50"/>
     </row>
@@ -1839,80 +1840,80 @@
         <v>2</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="51"/>
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="51"/>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="51"/>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="34"/>
     </row>
@@ -1922,7 +1923,7 @@
     </row>
     <row r="23" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
@@ -1932,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4"/>
     </row>
@@ -1941,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -1950,96 +1951,96 @@
         <v>2</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="33"/>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="33"/>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="33"/>
     </row>
     <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="33"/>
     </row>
     <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="34"/>
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="34"/>
     </row>
@@ -2049,7 +2050,7 @@
     </row>
     <row r="39" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="27"/>
@@ -2059,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4"/>
     </row>
@@ -2068,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2079,96 +2080,96 @@
         <v>2</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="31"/>
     </row>
     <row r="44" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="33"/>
     </row>
     <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="33"/>
     </row>
     <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36"/>
       <c r="B47" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="33"/>
     </row>
     <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
       <c r="B48" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="33"/>
     </row>
     <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="33"/>
     </row>
     <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36"/>
       <c r="B50" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="33"/>
     </row>
     <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="34"/>
     </row>
     <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="34"/>
     </row>
@@ -2178,7 +2179,7 @@
     </row>
     <row r="55" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="27"/>
@@ -2188,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" s="4"/>
     </row>
@@ -2197,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C57" s="4"/>
     </row>
@@ -2206,96 +2207,96 @@
         <v>2</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="36" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="33"/>
     </row>
     <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="36"/>
       <c r="B62" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="33"/>
     </row>
     <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="36"/>
       <c r="B63" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="36"/>
       <c r="B65" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="33"/>
     </row>
     <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="36"/>
       <c r="B66" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" s="33"/>
     </row>
     <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="30"/>
       <c r="C67" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="34"/>
     </row>
     <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" s="34"/>
     </row>
@@ -2305,7 +2306,7 @@
     </row>
     <row r="71" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="27"/>
@@ -2315,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C72" s="4"/>
     </row>
@@ -2324,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C73" s="4"/>
     </row>
@@ -2333,96 +2334,96 @@
         <v>2</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="36" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C75" s="31"/>
     </row>
     <row r="76" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="33"/>
     </row>
     <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="36"/>
       <c r="B78" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="33"/>
     </row>
     <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="36"/>
       <c r="B79" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" s="33"/>
     </row>
     <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="36"/>
       <c r="B80" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="33"/>
     </row>
     <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="36"/>
       <c r="B81" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81" s="33"/>
     </row>
     <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="36"/>
       <c r="B82" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="33"/>
     </row>
     <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83" s="30"/>
       <c r="C83" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84" s="30"/>
       <c r="C84" s="34"/>
     </row>
     <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C85" s="34"/>
     </row>
@@ -2432,7 +2433,7 @@
     </row>
     <row r="87" spans="1:3" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
@@ -2442,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C88" s="4"/>
     </row>
@@ -2451,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C89" s="4"/>
     </row>
@@ -2460,96 +2461,96 @@
         <v>2</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="36" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C91" s="31"/>
     </row>
     <row r="92" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="33"/>
     </row>
     <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="36"/>
       <c r="B94" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" s="33"/>
     </row>
     <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="36"/>
       <c r="B95" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="33"/>
     </row>
     <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="36"/>
       <c r="B96" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" s="33"/>
     </row>
     <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="36"/>
       <c r="B97" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C97" s="33"/>
     </row>
     <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="36"/>
       <c r="B98" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" s="33"/>
     </row>
     <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B99" s="30"/>
       <c r="C99" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100" s="30"/>
       <c r="C100" s="34"/>
     </row>
     <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C101" s="34"/>
     </row>
